--- a/results/FrequentActorPairs.xlsx
+++ b/results/FrequentActorPairs.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zach/Documents/Databases/IMDBDataAnalysis/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\Development\IMDBDataAnalysis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -148,12 +148,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -167,7 +170,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Individual Actor Rating Vs. Pair With Frequency of Five or More</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -201,7 +233,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -209,7 +241,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -228,47 +260,81 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$15:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1960s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010s</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>All Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:f>Sheet1!$B$15:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.34890463641099</c:v>
+                  <c:v>6.3489046364109898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.30959630704386</c:v>
+                  <c:v>6.3095963070438597</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.30458934213668</c:v>
+                  <c:v>6.3045893421366799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.23130034089292</c:v>
+                  <c:v>6.2313003408929202</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6.27567266473595</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.45658484792845</c:v>
+                  <c:v>7.4565848479284504</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.34551052722266</c:v>
+                  <c:v>6.3455105272226602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1367-44B0-AF14-C5BF97DED91A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>Sheet1!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Combined Mean</c:v>
+                  <c:v>Individual StdDev</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -283,38 +349,251 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$15:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1960s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010s</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>All Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$9</c:f>
+              <c:f>Sheet1!$C$15:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.25952250190628</c:v>
+                  <c:v>0.78298376507953404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.28056638363453</c:v>
+                  <c:v>0.87673847097551805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.29547112293444</c:v>
+                  <c:v>0.85156714005919798</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.18915695238694</c:v>
+                  <c:v>0.81815011969612095</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.15647135417689</c:v>
+                  <c:v>1.0115720337256899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.44640872962826</c:v>
+                  <c:v>0.78301991664733805</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.35181683454585</c:v>
+                  <c:v>0.47428313486920298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1367-44B0-AF14-C5BF97DED91A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Combined Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$15:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1960s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010s</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>All Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$15:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.2595225019062797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2805663836345298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2954711229344396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1891569523869396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1564713541768903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4464087296282599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3518168345458497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1367-44B0-AF14-C5BF97DED91A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Combined StdDev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$15:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1960s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010s</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>All Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$15:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.99387769452542396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06519879519774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0114338782404499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01827415858135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.25951510542423</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0308959516599301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80659747179220198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1367-44B0-AF14-C5BF97DED91A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -322,18 +601,72 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-858290656"/>
-        <c:axId val="-858288336"/>
+        <c:gapWidth val="182"/>
+        <c:axId val="635349176"/>
+        <c:axId val="635345896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-858290656"/>
+        <c:axId val="635349176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Period</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -371,7 +704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-858288336"/>
+        <c:crossAx val="635345896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -379,12 +712,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-858288336"/>
+        <c:axId val="635345896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -399,6 +732,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Rating</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -429,10 +823,49 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-858290656"/>
+        <c:crossAx val="635349176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -443,7 +876,786 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Individual</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> Actor Rating Vs. Pair With Frequency of Three or More</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Individual Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1960s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010s</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>All Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.3489046364109898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3095963070438597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3045893421366799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2313003408929202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.27567266473595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4565848479284504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3455105272226602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7551-4DC4-AD26-B7FAB707EBCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Individual StdDev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1960s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010s</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>All Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.482983765079534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.576738470975518</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45156714005919801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41815011969612098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61157203372569702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.48301991664733801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27428313486920303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7551-4DC4-AD26-B7FAB707EBCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Combined Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1960s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010s</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>All Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.2595225019062797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2805663836345298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2954711229344396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1891569523869396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1564713541768903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4464087296282599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3518168345458497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7551-4DC4-AD26-B7FAB707EBCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Combined StdDev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1960s</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1980s</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990s</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000s</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010s</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>All Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.59387769452542405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66519879519774805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51143387824045505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51827415858135295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85951510542423404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73089595165993104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40659747179220201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7551-4DC4-AD26-B7FAB707EBCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="599823120"/>
+        <c:axId val="599827384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="599823120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Period</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599827384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="599827384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Rating</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599823120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -550,8 +1762,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -755,22 +2007,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -875,8 +2128,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1008,19 +2261,525 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1057,20 +2816,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466723</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>771523</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6FD153-0F7E-4370-BAEB-CA29764D53C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1080,6 +2845,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>781051</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B9C51FB-2D34-45D9-98AF-DBCDAA3CA53E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1350,26 +3151,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="5" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="5" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +3187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1403,7 +3204,7 @@
         <v>0.59387769452542405</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1420,7 +3221,7 @@
         <v>0.66519879519774805</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1437,7 +3238,7 @@
         <v>0.51143387824045505</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1454,7 +3255,7 @@
         <v>0.51827415858135295</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +3272,7 @@
         <v>0.85951510542423404</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1488,7 +3289,7 @@
         <v>0.73089595165993104</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1505,12 +3306,12 @@
         <v>0.40659747179220201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +3328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1544,7 +3345,7 @@
         <v>0.99387769452542396</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1561,7 +3362,7 @@
         <v>1.06519879519774</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1578,7 +3379,7 @@
         <v>1.0114338782404499</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1595,7 +3396,7 @@
         <v>1.01827415858135</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1612,7 +3413,7 @@
         <v>1.25951510542423</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +3430,7 @@
         <v>1.0308959516599301</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1646,7 +3447,7 @@
         <v>0.80659747179220198</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
